--- a/asset/origin-design.xlsx
+++ b/asset/origin-design.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="28">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -119,6 +119,14 @@
   </si>
   <si>
     <t>publickKey</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fingerprint</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ip</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -465,10 +473,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J17"/>
+  <dimension ref="A1:K17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -479,12 +487,12 @@
     <col min="11" max="11" width="11.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -509,18 +517,36 @@
       <c r="H2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="E3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="E7" t="s">
+        <v>27</v>
+      </c>
+      <c r="F7" t="s">
+        <v>27</v>
+      </c>
+      <c r="G7" t="s">
+        <v>27</v>
+      </c>
+      <c r="H7" t="s">
+        <v>27</v>
+      </c>
+      <c r="I7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>0</v>
       </c>
@@ -551,13 +577,16 @@
       <c r="J8" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K8" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>16</v>
       </c>
@@ -568,12 +597,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>14</v>
       </c>
@@ -581,7 +610,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>20</v>
       </c>
